--- a/background/Species codes.xlsx
+++ b/background/Species codes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="19200" windowHeight="8145"/>
+    <workbookView xWindow="19570" yWindow="0" windowWidth="19200" windowHeight="8150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="348">
   <si>
     <t>unknown</t>
   </si>
@@ -1153,6 +1153,18 @@
   </si>
   <si>
     <t>OLRIR</t>
+  </si>
+  <si>
+    <t>MEAL3</t>
+  </si>
+  <si>
+    <t>Melilotus altissimus</t>
+  </si>
+  <si>
+    <t>DEPI</t>
+  </si>
+  <si>
+    <t>Descurainia pinnata</t>
   </si>
 </sst>
 </file>
@@ -1527,20 +1539,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K238"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>323</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -1590,7 +1602,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1618,7 +1630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1632,7 +1644,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -1688,7 +1700,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>200</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1730,7 +1742,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>224</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>78</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>325</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>263</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1912,7 +1924,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>181</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>326</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>212</v>
       </c>
@@ -1982,40 +1994,40 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>204</v>
       </c>
-      <c r="F32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E33" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>328</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="E34" t="s">
         <v>203</v>
@@ -2024,149 +2036,149 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>204</v>
       </c>
-      <c r="F35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>234</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>330</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E39" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E40" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E41" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E42" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E43" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E45" t="s">
         <v>203</v>
@@ -2175,12 +2187,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
         <v>203</v>
@@ -2189,82 +2201,82 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E47" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E48" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E48" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E49" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F49" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="E50" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E50" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E51" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>332</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="E52" t="s">
         <v>204</v>
@@ -2273,12 +2285,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="E53" t="s">
         <v>204</v>
@@ -2287,12 +2299,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
         <v>204</v>
@@ -2301,26 +2313,26 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E55" t="s">
-        <v>203</v>
-      </c>
-      <c r="F55" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E56" t="s">
         <v>203</v>
@@ -2329,40 +2341,40 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E57" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="E58" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E58" t="s">
-        <v>204</v>
-      </c>
-      <c r="F58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E59" t="s">
         <v>204</v>
@@ -2371,12 +2383,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>64</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
         <v>204</v>
@@ -2385,34 +2397,40 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="E61" t="s">
-        <v>203</v>
-      </c>
-      <c r="F61" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E63" t="s">
         <v>203</v>
@@ -2421,54 +2439,48 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>343</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E64" t="s">
-        <v>203</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E66" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>233</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E65" t="s">
-        <v>204</v>
-      </c>
-      <c r="F65" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" t="s">
-        <v>203</v>
-      </c>
-      <c r="F66" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E67" t="s">
         <v>204</v>
@@ -2477,124 +2489,124 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>260</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E68" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="E70" t="s">
+        <v>203</v>
+      </c>
+      <c r="F70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E69" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E71" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>338</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E70" t="s">
-        <v>203</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E71" t="s">
-        <v>203</v>
-      </c>
-      <c r="F71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="E73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E72" t="s">
-        <v>203</v>
-      </c>
-      <c r="F72" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="E74" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>183</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>204</v>
       </c>
-      <c r="F73" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="F75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E74" t="s">
-        <v>204</v>
-      </c>
-      <c r="F74" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E76" t="s">
         <v>204</v>
@@ -2603,99 +2615,96 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>204</v>
       </c>
-      <c r="F77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="F79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E78" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="E80" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E79" t="s">
-        <v>203</v>
-      </c>
-      <c r="F79" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="E81" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E80" t="s">
-        <v>203</v>
-      </c>
-      <c r="F80" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="E82" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E81" t="s">
-        <v>204</v>
-      </c>
-      <c r="F81" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E82" t="s">
-        <v>204</v>
-      </c>
-      <c r="F82" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E83" t="s">
         <v>204</v>
@@ -2704,12 +2713,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="E84" t="s">
         <v>204</v>
@@ -2718,110 +2727,113 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" t="s">
+        <v>204</v>
+      </c>
+      <c r="F85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E85" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="E87" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E86" t="s">
-        <v>203</v>
-      </c>
-      <c r="F86" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="E88" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E87" t="s">
-        <v>203</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E89" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E88" t="s">
-        <v>203</v>
-      </c>
-      <c r="F88" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="E90" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>199</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E89" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="E91" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E90" t="s">
-        <v>204</v>
-      </c>
-      <c r="F90" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" t="s">
-        <v>204</v>
-      </c>
-      <c r="F91" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E92" t="s">
         <v>204</v>
@@ -2830,29 +2842,26 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>195</v>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F93" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>41</v>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>43</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E94" t="s">
         <v>204</v>
@@ -2861,85 +2870,94 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" t="s">
+        <v>203</v>
+      </c>
+      <c r="F95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="E95" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C97" s="1"/>
+      <c r="E97" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>141</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E96" t="s">
-        <v>203</v>
-      </c>
-      <c r="F96" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="E98" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>204</v>
       </c>
-      <c r="F97" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="F99" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>15</v>
       </c>
-      <c r="C98" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" s="2">
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2">
         <v>43221</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>14</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" s="2">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>9</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>0</v>
@@ -2948,76 +2966,75 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>145</v>
-      </c>
-      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I102" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>146</v>
       </c>
-      <c r="C103" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2">
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>7</v>
       </c>
-      <c r="C104" t="s">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2">
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" s="2">
+      <c r="C107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2">
         <v>43221</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>147</v>
-      </c>
-      <c r="C106" t="s">
-        <v>0</v>
-      </c>
-      <c r="I106" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>148</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -3026,20 +3043,21 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
       </c>
+      <c r="I109" s="2"/>
       <c r="J109" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -3048,225 +3066,224 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
       </c>
-      <c r="I111" s="2"/>
       <c r="J111" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>239</v>
       </c>
-      <c r="C112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2">
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>150</v>
       </c>
-      <c r="C113" t="s">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2">
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G114" s="2">
+      <c r="C116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
         <v>43221</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>240</v>
       </c>
-      <c r="C115" t="s">
-        <v>0</v>
-      </c>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
       <c r="C117" t="s">
         <v>0</v>
       </c>
+      <c r="I117" s="2"/>
       <c r="J117" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>241</v>
       </c>
-      <c r="C118" t="s">
-        <v>0</v>
-      </c>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>151</v>
-      </c>
-      <c r="C119" t="s">
-        <v>0</v>
-      </c>
-      <c r="I119" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>217</v>
-      </c>
       <c r="C120" t="s">
         <v>0</v>
       </c>
+      <c r="I120" s="2"/>
       <c r="J120" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G121" s="2">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
       </c>
-      <c r="I122" s="2"/>
       <c r="J122" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>243</v>
       </c>
-      <c r="C123" t="s">
-        <v>0</v>
-      </c>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2">
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>152</v>
       </c>
-      <c r="C124" t="s">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2">
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G125" s="2">
+      <c r="C127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
         <v>43221</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>3</v>
       </c>
-      <c r="C126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" s="2">
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>153</v>
       </c>
-      <c r="C127" t="s">
-        <v>0</v>
-      </c>
-      <c r="I127" s="2">
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>244</v>
-      </c>
-      <c r="C128" t="s">
-        <v>0</v>
-      </c>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>218</v>
-      </c>
-      <c r="C129" t="s">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>245</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -3276,122 +3293,122 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
       </c>
-      <c r="I131" s="2"/>
       <c r="J131" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>154</v>
       </c>
-      <c r="C132" t="s">
-        <v>0</v>
-      </c>
-      <c r="I132" s="2">
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>155</v>
       </c>
-      <c r="C133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I133" s="2">
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>247</v>
       </c>
-      <c r="C134" t="s">
-        <v>0</v>
-      </c>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2">
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>2</v>
       </c>
-      <c r="C135" t="s">
-        <v>0</v>
-      </c>
-      <c r="H135" s="2">
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>156</v>
       </c>
-      <c r="C136" t="s">
-        <v>0</v>
-      </c>
-      <c r="I136" s="2">
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>220</v>
       </c>
-      <c r="C137" t="s">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2">
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>221</v>
       </c>
-      <c r="C138" t="s">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" t="s">
-        <v>0</v>
-      </c>
-      <c r="I139" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>248</v>
-      </c>
       <c r="C140" t="s">
         <v>0</v>
       </c>
-      <c r="I140" s="2"/>
       <c r="J140" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
@@ -3400,125 +3417,125 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>248</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>159</v>
       </c>
-      <c r="C142" t="s">
-        <v>0</v>
-      </c>
-      <c r="I142" s="2">
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>249</v>
       </c>
-      <c r="C143" t="s">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>222</v>
-      </c>
-      <c r="C144" t="s">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>223</v>
-      </c>
       <c r="C145" t="s">
         <v>0</v>
       </c>
+      <c r="I145" s="2"/>
       <c r="J145" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
       </c>
-      <c r="I146" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J146" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
       </c>
-      <c r="I147" s="2"/>
       <c r="J147" s="2">
         <v>43678</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
-      </c>
-      <c r="H148" s="2">
-        <v>43313</v>
       </c>
       <c r="I148" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
       </c>
-      <c r="I149" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I149" s="2"/>
+      <c r="J149" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>43313</v>
       </c>
       <c r="I150" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
       </c>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I151" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
@@ -3527,20 +3544,21 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
       </c>
-      <c r="I153" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I153" s="2"/>
+      <c r="J153" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -3549,21 +3567,20 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
       </c>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I155" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C156" t="s">
         <v>0</v>
@@ -3572,54 +3589,54 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>252</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>5</v>
       </c>
-      <c r="C157" t="s">
-        <v>0</v>
-      </c>
-      <c r="H157" s="2">
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>1</v>
       </c>
-      <c r="C158" t="s">
-        <v>0</v>
-      </c>
-      <c r="H158" s="2">
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>110</v>
-      </c>
-      <c r="C159" t="s">
-        <v>0</v>
-      </c>
-      <c r="I159" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>253</v>
-      </c>
-      <c r="C160" t="s">
-        <v>0</v>
-      </c>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>167</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
@@ -3628,20 +3645,21 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
       </c>
-      <c r="I162" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I162" s="2"/>
+      <c r="J162" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
@@ -3650,9 +3668,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
@@ -3661,9 +3679,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -3672,9 +3690,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
@@ -3683,9 +3701,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -3694,23 +3712,20 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G168" s="2">
-        <v>43221</v>
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
       </c>
       <c r="I168" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
@@ -3719,20 +3734,23 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>112</v>
-      </c>
-      <c r="C170" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170" s="2">
+        <v>43221</v>
       </c>
       <c r="I170" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -3741,9 +3759,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
@@ -3752,9 +3770,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -3763,9 +3781,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
@@ -3774,9 +3792,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -3785,9 +3803,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
@@ -3796,9 +3814,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -3807,20 +3825,20 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>118</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>119</v>
-      </c>
-      <c r="C178" t="s">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>120</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
@@ -3829,20 +3847,20 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
       </c>
-      <c r="I180" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J180" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
@@ -3851,9 +3869,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -3862,619 +3880,641 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>122</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>132</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>266</v>
       </c>
-      <c r="C183" t="s">
-        <v>0</v>
-      </c>
-      <c r="K183" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C185" t="s">
+        <v>0</v>
+      </c>
+      <c r="K185" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>267</v>
       </c>
-      <c r="C184" t="s">
-        <v>0</v>
-      </c>
-      <c r="K184" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+      <c r="K186" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>268</v>
       </c>
-      <c r="C185" t="s">
-        <v>0</v>
-      </c>
-      <c r="K185" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C187" t="s">
+        <v>0</v>
+      </c>
+      <c r="K187" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>269</v>
       </c>
-      <c r="C186" t="s">
-        <v>0</v>
-      </c>
-      <c r="K186" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="C188" t="s">
+        <v>0</v>
+      </c>
+      <c r="K188" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>270</v>
       </c>
-      <c r="C187" t="s">
-        <v>0</v>
-      </c>
-      <c r="K187" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+      <c r="K189" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>271</v>
       </c>
-      <c r="C188" t="s">
-        <v>0</v>
-      </c>
-      <c r="K188" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+      <c r="K190" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>272</v>
       </c>
-      <c r="C189" t="s">
-        <v>0</v>
-      </c>
-      <c r="K189" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+      <c r="K191" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>273</v>
       </c>
-      <c r="C190" t="s">
-        <v>0</v>
-      </c>
-      <c r="K190" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C192" t="s">
+        <v>0</v>
+      </c>
+      <c r="K192" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>274</v>
       </c>
-      <c r="C191" t="s">
-        <v>0</v>
-      </c>
-      <c r="K191" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+      <c r="K193" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>275</v>
       </c>
-      <c r="C192" t="s">
-        <v>0</v>
-      </c>
-      <c r="K192" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+      <c r="K194" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>276</v>
       </c>
-      <c r="C193" t="s">
-        <v>0</v>
-      </c>
-      <c r="K193" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="C195" t="s">
+        <v>0</v>
+      </c>
+      <c r="K195" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>277</v>
       </c>
-      <c r="C194" t="s">
-        <v>0</v>
-      </c>
-      <c r="K194" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+      <c r="K196" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>278</v>
       </c>
-      <c r="C195" t="s">
-        <v>0</v>
-      </c>
-      <c r="K195" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="K197" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>279</v>
       </c>
-      <c r="C196" t="s">
-        <v>0</v>
-      </c>
-      <c r="K196" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="C198" t="s">
+        <v>0</v>
+      </c>
+      <c r="K198" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>280</v>
       </c>
-      <c r="C197" t="s">
-        <v>0</v>
-      </c>
-      <c r="K197" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+      <c r="K199" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>281</v>
       </c>
-      <c r="C198" t="s">
-        <v>0</v>
-      </c>
-      <c r="K198" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="K200" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>282</v>
       </c>
-      <c r="C199" t="s">
-        <v>0</v>
-      </c>
-      <c r="K199" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="K201" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>283</v>
       </c>
-      <c r="C200" t="s">
-        <v>0</v>
-      </c>
-      <c r="K200" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+      <c r="K202" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>284</v>
       </c>
-      <c r="C201" t="s">
-        <v>0</v>
-      </c>
-      <c r="K201" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="K203" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>285</v>
       </c>
-      <c r="C202" t="s">
-        <v>0</v>
-      </c>
-      <c r="K202" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="K204" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>286</v>
       </c>
-      <c r="C203" t="s">
-        <v>0</v>
-      </c>
-      <c r="K203" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="K205" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>287</v>
       </c>
-      <c r="C204" t="s">
-        <v>0</v>
-      </c>
-      <c r="K204" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="K206" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>288</v>
       </c>
-      <c r="C205" t="s">
-        <v>0</v>
-      </c>
-      <c r="K205" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="K207" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>289</v>
       </c>
-      <c r="C206" t="s">
-        <v>0</v>
-      </c>
-      <c r="K206" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="K208" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>290</v>
       </c>
-      <c r="C207" t="s">
-        <v>0</v>
-      </c>
-      <c r="K207" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="K209" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>291</v>
       </c>
-      <c r="C208" t="s">
-        <v>0</v>
-      </c>
-      <c r="K208" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="K210" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>292</v>
       </c>
-      <c r="C209" t="s">
-        <v>0</v>
-      </c>
-      <c r="K209" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="K211" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>293</v>
       </c>
-      <c r="C210" t="s">
-        <v>0</v>
-      </c>
-      <c r="K210" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="K212" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>294</v>
       </c>
-      <c r="C211" t="s">
-        <v>0</v>
-      </c>
-      <c r="K211" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="K213" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>295</v>
       </c>
-      <c r="C212" t="s">
-        <v>0</v>
-      </c>
-      <c r="K212" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="K214" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>296</v>
       </c>
-      <c r="C213" t="s">
-        <v>0</v>
-      </c>
-      <c r="K213" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="K215" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>297</v>
       </c>
-      <c r="C214" t="s">
-        <v>0</v>
-      </c>
-      <c r="K214" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="K216" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>298</v>
       </c>
-      <c r="C215" t="s">
-        <v>0</v>
-      </c>
-      <c r="K215" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="K217" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>299</v>
       </c>
-      <c r="C216" t="s">
-        <v>0</v>
-      </c>
-      <c r="K216" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="K218" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>300</v>
       </c>
-      <c r="C217" t="s">
-        <v>0</v>
-      </c>
-      <c r="K217" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="K219" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>301</v>
       </c>
-      <c r="C218" t="s">
-        <v>0</v>
-      </c>
-      <c r="K218" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="K220" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>302</v>
       </c>
-      <c r="C219" t="s">
-        <v>0</v>
-      </c>
-      <c r="K219" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="K221" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>303</v>
       </c>
-      <c r="C220" t="s">
-        <v>0</v>
-      </c>
-      <c r="K220" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="K222" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>304</v>
       </c>
-      <c r="C221" t="s">
-        <v>0</v>
-      </c>
-      <c r="K221" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="K223" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>305</v>
       </c>
-      <c r="C222" t="s">
-        <v>0</v>
-      </c>
-      <c r="K222" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="K224" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>306</v>
       </c>
-      <c r="C223" t="s">
-        <v>0</v>
-      </c>
-      <c r="K223" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="C225" t="s">
+        <v>0</v>
+      </c>
+      <c r="K225" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>307</v>
       </c>
-      <c r="C224" t="s">
-        <v>0</v>
-      </c>
-      <c r="K224" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="K226" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>308</v>
       </c>
-      <c r="C225" t="s">
-        <v>0</v>
-      </c>
-      <c r="K225" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="K227" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>309</v>
       </c>
-      <c r="C226" t="s">
-        <v>0</v>
-      </c>
-      <c r="K226" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="C228" t="s">
+        <v>0</v>
+      </c>
+      <c r="K228" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>310</v>
       </c>
-      <c r="C227" t="s">
-        <v>0</v>
-      </c>
-      <c r="K227" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="K229" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>311</v>
       </c>
-      <c r="C228" t="s">
-        <v>0</v>
-      </c>
-      <c r="K228" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="K230" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>312</v>
       </c>
-      <c r="C229" t="s">
-        <v>0</v>
-      </c>
-      <c r="K229" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="K231" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>313</v>
       </c>
-      <c r="C230" t="s">
-        <v>0</v>
-      </c>
-      <c r="K230" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="K232" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>314</v>
       </c>
-      <c r="C231" t="s">
-        <v>0</v>
-      </c>
-      <c r="K231" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="K233" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>315</v>
       </c>
-      <c r="C232" t="s">
-        <v>0</v>
-      </c>
-      <c r="K232" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="K234" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>316</v>
       </c>
-      <c r="C233" t="s">
-        <v>0</v>
-      </c>
-      <c r="K233" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="K235" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>317</v>
       </c>
-      <c r="C234" t="s">
-        <v>0</v>
-      </c>
-      <c r="K234" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="K236" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>318</v>
       </c>
-      <c r="C235" t="s">
-        <v>0</v>
-      </c>
-      <c r="K235" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="K237" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>319</v>
       </c>
-      <c r="C236" t="s">
-        <v>0</v>
-      </c>
-      <c r="K236" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="K238" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>320</v>
       </c>
-      <c r="C237" t="s">
-        <v>0</v>
-      </c>
-      <c r="K237" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="K239" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>321</v>
       </c>
-      <c r="C238" t="s">
-        <v>0</v>
-      </c>
-      <c r="K238" s="7">
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="K240" s="7">
         <v>44032</v>
       </c>
     </row>

--- a/background/Species codes.xlsx
+++ b/background/Species codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\background\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF8B47-D87B-4B40-9E49-E82461C4A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1F82F-28EF-4A52-8304-B49F80C2AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="438">
   <si>
     <t>unknown</t>
   </si>
@@ -1193,9 +1200,6 @@
     <t>TOEF</t>
   </si>
   <si>
-    <t>LEPO</t>
-  </si>
-  <si>
     <t>UF12</t>
   </si>
   <si>
@@ -1274,9 +1278,6 @@
     <t>Tradescantia occidentalis</t>
   </si>
   <si>
-    <t>ACNU</t>
-  </si>
-  <si>
     <t>ASDR3</t>
   </si>
   <si>
@@ -1328,9 +1329,6 @@
     <t>KOMA</t>
   </si>
   <si>
-    <t>LAOC</t>
-  </si>
-  <si>
     <t>MIRABILIS</t>
   </si>
   <si>
@@ -1340,15 +1338,9 @@
     <t>Sonchus</t>
   </si>
   <si>
-    <t>SORI</t>
-  </si>
-  <si>
     <t>STPI</t>
   </si>
   <si>
-    <t xml:space="preserve"> Symphyotrichum laeve</t>
-  </si>
-  <si>
     <t>SYLA3</t>
   </si>
   <si>
@@ -1379,9 +1371,6 @@
     <t>SPAI</t>
   </si>
   <si>
-    <t>THEY</t>
-  </si>
-  <si>
     <t>UF11</t>
   </si>
   <si>
@@ -1409,28 +1398,82 @@
     <t>Recorded</t>
   </si>
   <si>
-    <t>DRTE</t>
-  </si>
-  <si>
-    <t>ERTE</t>
-  </si>
-  <si>
-    <t>LECI/LECI4</t>
-  </si>
-  <si>
-    <t>LICONCE</t>
-  </si>
-  <si>
     <t>MUMO</t>
   </si>
   <si>
     <t>Muhlenbergia montana</t>
   </si>
   <si>
-    <t>OASN</t>
-  </si>
-  <si>
-    <t>OESU (WHITE FLOWERS)</t>
+    <t>LAOC3</t>
+  </si>
+  <si>
+    <t>Lappula occidentalis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mirabilis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
+  </si>
+  <si>
+    <t>Symphyotrichum laeve</t>
+  </si>
+  <si>
+    <t>THEL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thelypodiopsis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
+  </si>
+  <si>
+    <t>LECI4</t>
+  </si>
+  <si>
+    <t>Leymus cinereus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Glycyrrhiza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
+  </si>
+  <si>
+    <t>GLYC</t>
+  </si>
+  <si>
+    <t>OESU3</t>
+  </si>
+  <si>
+    <t>Oenothera suffrutescens</t>
   </si>
 </sst>
 </file>
@@ -1474,18 +1517,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1500,7 +1537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1510,9 +1547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1827,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:A302"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1896,7 @@
         <v>255</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1924,10 +1959,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="E6" t="s">
         <v>202</v>
@@ -2008,10 +2043,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E12" t="s">
         <v>201</v>
@@ -2037,10 +2072,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E14" t="s">
         <v>201</v>
@@ -2065,10 +2100,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E16" t="s">
         <v>201</v>
@@ -2079,10 +2114,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E17" t="s">
         <v>201</v>
@@ -2135,10 +2170,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E21" t="s">
         <v>201</v>
@@ -2149,10 +2184,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E22" t="s">
         <v>202</v>
@@ -2303,10 +2338,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E33" t="s">
         <v>201</v>
@@ -2401,10 +2436,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E40" t="s">
         <v>201</v>
@@ -2458,10 +2493,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
         <v>201</v>
@@ -2472,10 +2507,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="E45" t="s">
         <v>201</v>
@@ -2500,10 +2535,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="E47" t="s">
         <v>202</v>
@@ -2609,13 +2644,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>435</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>201</v>
+        <v>434</v>
       </c>
       <c r="F55" t="s">
         <v>257</v>
@@ -2623,24 +2655,24 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
         <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
         <v>201</v>
@@ -2651,10 +2683,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
         <v>201</v>
@@ -2665,10 +2697,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="E59" t="s">
         <v>201</v>
@@ -2679,24 +2711,24 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E60" t="s">
         <v>201</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
         <v>201</v>
@@ -2707,69 +2739,69 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E65" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>330</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E66" t="s">
         <v>202</v>
@@ -2778,26 +2810,26 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>427</v>
       </c>
       <c r="E67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F67" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E68" t="s">
         <v>202</v>
@@ -2806,12 +2838,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>432</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>433</v>
       </c>
       <c r="E69" t="s">
         <v>201</v>
@@ -2820,82 +2852,82 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>332</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E70" t="s">
-        <v>201</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E71" t="s">
-        <v>201</v>
-      </c>
-      <c r="F71" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E72" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>340</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E74" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E75" t="s">
         <v>202</v>
@@ -2904,121 +2936,125 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>340</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E76" t="s">
-        <v>201</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E80" t="s">
+        <v>201</v>
+      </c>
+      <c r="F80" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>434</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E78" t="s">
-        <v>201</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="F81" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>424</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E82" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E79" t="s">
-        <v>201</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E83" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>339</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E81" t="s">
-        <v>201</v>
-      </c>
-      <c r="F81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>231</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E82" t="s">
-        <v>202</v>
-      </c>
-      <c r="F82" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" t="s">
-        <v>201</v>
-      </c>
-      <c r="F83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3026,114 +3062,121 @@
         <v>201</v>
       </c>
       <c r="F84" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" t="s">
         <v>256</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" t="s">
+        <v>202</v>
+      </c>
+      <c r="F87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>201</v>
+      </c>
+      <c r="F88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>217</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E90" t="s">
         <v>202</v>
       </c>
-      <c r="F85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="F90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>258</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E86" t="s">
-        <v>201</v>
-      </c>
-      <c r="F86" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E91" t="s">
+        <v>201</v>
+      </c>
+      <c r="F91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E87" t="s">
-        <v>201</v>
-      </c>
-      <c r="F87" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>336</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E88" t="s">
-        <v>201</v>
-      </c>
-      <c r="F88" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89" t="s">
-        <v>201</v>
-      </c>
-      <c r="F89" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E90" t="s">
-        <v>201</v>
-      </c>
-      <c r="F90" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>181</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E91" t="s">
-        <v>202</v>
-      </c>
-      <c r="F91" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>379</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E92" t="s">
         <v>201</v>
@@ -3142,26 +3185,26 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="E94" t="s">
         <v>201</v>
@@ -3170,27 +3213,26 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F95" t="s">
         <v>257</v>
       </c>
-      <c r="I95" s="8"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="E96" t="s">
         <v>202</v>
@@ -3201,10 +3243,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="E97" t="s">
         <v>201</v>
@@ -3214,25 +3256,25 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>54</v>
+      <c r="A98" t="s">
+        <v>32</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F98" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>227</v>
+      <c r="A99" t="s">
+        <v>177</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="E99" t="s">
         <v>201</v>
@@ -3242,25 +3284,26 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>381</v>
+      <c r="A100" t="s">
+        <v>17</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F100" t="s">
         <v>257</v>
       </c>
+      <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="E101" t="s">
         <v>202</v>
@@ -3271,56 +3314,52 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>407</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>209</v>
+        <v>408</v>
       </c>
       <c r="E102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
         <v>257</v>
       </c>
-      <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>109</v>
+      <c r="A104" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>175</v>
+      <c r="A105" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>176</v>
+        <v>381</v>
       </c>
       <c r="E105" t="s">
         <v>201</v>
@@ -3328,17 +3367,16 @@
       <c r="F105" t="s">
         <v>257</v>
       </c>
-      <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
         <v>257</v>
@@ -3346,70 +3384,71 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>419</v>
+        <v>208</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>256</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>253</v>
+      <c r="A109" t="s">
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
         <v>257</v>
       </c>
-      <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G110" s="8"/>
+      <c r="A110" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E110" t="s">
+        <v>201</v>
+      </c>
+      <c r="F110" t="s">
+        <v>257</v>
+      </c>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E111" t="s">
         <v>201</v>
@@ -3419,45 +3458,42 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F112" s="4" t="s">
+      <c r="A112" t="s">
+        <v>414</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" t="s">
         <v>256</v>
       </c>
-      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="E114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F114" t="s">
         <v>257</v>
@@ -3465,56 +3501,59 @@
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>43</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" t="s">
-        <v>202</v>
-      </c>
-      <c r="F115" t="s">
-        <v>257</v>
-      </c>
+      <c r="A115" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G115" s="8"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>383</v>
+        <v>197</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="E116" t="s">
         <v>201</v>
       </c>
       <c r="F116" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>193</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E117" t="s">
-        <v>201</v>
-      </c>
-      <c r="F117" t="s">
-        <v>257</v>
-      </c>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E118" t="s">
         <v>202</v>
@@ -3525,39 +3564,42 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C119" s="1"/>
+        <v>44</v>
+      </c>
       <c r="E119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F119" t="s">
         <v>257</v>
       </c>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>139</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E120" t="s">
-        <v>201</v>
-      </c>
+      <c r="A120" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
       <c r="F120" t="s">
         <v>257</v>
       </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E121" t="s">
         <v>202</v>
@@ -3568,10 +3610,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="E122" t="s">
         <v>201</v>
@@ -3582,131 +3624,153 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" t="s">
-        <v>0</v>
-      </c>
-      <c r="G123" s="2">
-        <v>43221</v>
+        <v>193</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E123" t="s">
+        <v>201</v>
+      </c>
+      <c r="F123" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G124" s="2">
-        <v>43221</v>
+      <c r="A124" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" t="s">
+        <v>202</v>
+      </c>
+      <c r="F124" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>367</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G125" s="2">
-        <v>44348</v>
+      <c r="A125" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="E125" t="s">
+        <v>201</v>
+      </c>
+      <c r="F125" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>361</v>
-      </c>
-      <c r="C126" t="s">
-        <v>0</v>
-      </c>
-      <c r="G126" s="2">
-        <v>44348</v>
+        <v>139</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E126" t="s">
+        <v>201</v>
+      </c>
+      <c r="F126" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E127" t="s">
-        <v>201</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>368</v>
+        <v>202</v>
+      </c>
+      <c r="F127" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G128" s="2">
-        <v>43221</v>
+        <v>421</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E128" t="s">
+        <v>201</v>
+      </c>
+      <c r="F128" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
       </c>
-      <c r="G129" s="7">
-        <v>44032</v>
+      <c r="G129" s="2">
+        <v>43221</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>347</v>
-      </c>
-      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G130" s="2">
-        <v>44348</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>143</v>
-      </c>
-      <c r="C131" t="s">
+        <v>366</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G131" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
-        <v>0</v>
-      </c>
-      <c r="G133" s="2">
-        <v>43313</v>
+        <v>125</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>201</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>0</v>
@@ -3717,40 +3781,40 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
       </c>
-      <c r="G135" s="2">
-        <v>43617</v>
+      <c r="G135" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
       </c>
       <c r="G136" s="2">
-        <v>43678</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>351</v>
+        <v>143</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
       </c>
       <c r="G137" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -3761,40 +3825,40 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>0</v>
       </c>
       <c r="G139" s="2">
-        <v>43678</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>147</v>
-      </c>
-      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G140" s="2">
-        <v>43617</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
       </c>
       <c r="G141" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C142" t="s">
         <v>0</v>
@@ -3805,29 +3869,29 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="C143" t="s">
         <v>0</v>
       </c>
       <c r="G143" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
         <v>0</v>
       </c>
       <c r="G144" s="2">
-        <v>43221</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
         <v>0</v>
@@ -3838,18 +3902,18 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
       </c>
       <c r="G146" s="2">
-        <v>43313</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
@@ -3860,29 +3924,29 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
       </c>
       <c r="G148" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
       </c>
       <c r="G149" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>0</v>
@@ -3893,7 +3957,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
@@ -3904,18 +3968,18 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
       </c>
-      <c r="G152" s="7">
-        <v>44032</v>
+      <c r="G152" s="2">
+        <v>43313</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
@@ -3926,7 +3990,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -3937,51 +4001,51 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C155" t="s">
         <v>0</v>
       </c>
       <c r="G155" s="2">
-        <v>43221</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G156" s="2">
-        <v>43313</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
       </c>
       <c r="G157" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
       </c>
-      <c r="G158" s="2">
-        <v>43678</v>
+      <c r="G158" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -3992,40 +4056,40 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
       </c>
       <c r="G160" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>244</v>
-      </c>
-      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G161" s="2">
-        <v>43678</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
       </c>
       <c r="G162" s="2">
-        <v>43617</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
@@ -4036,18 +4100,18 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
       </c>
       <c r="G164" s="2">
-        <v>44348</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -4058,63 +4122,62 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
       </c>
       <c r="G166" s="2">
-        <v>43313</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
       </c>
       <c r="G167" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
       </c>
       <c r="G168" s="2">
-        <v>43678</v>
-      </c>
-      <c r="I168" s="8"/>
+        <v>43617</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
       </c>
       <c r="G169" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
       </c>
       <c r="G170" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -4122,22 +4185,21 @@
       <c r="G171" s="2">
         <v>43678</v>
       </c>
-      <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
       </c>
       <c r="G172" s="2">
-        <v>43617</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -4145,23 +4207,22 @@
       <c r="G173" s="2">
         <v>43617</v>
       </c>
-      <c r="I173" s="8"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>406</v>
+        <v>218</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
       </c>
       <c r="G174" s="2">
-        <v>44398</v>
+        <v>43678</v>
       </c>
       <c r="I174" s="8"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -4172,18 +4233,18 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
       </c>
       <c r="G176" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -4191,10 +4252,11 @@
       <c r="G177" s="2">
         <v>43678</v>
       </c>
+      <c r="I177" s="8"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -4205,52 +4267,53 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
       </c>
       <c r="G179" s="2">
-        <v>43678</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="I179" s="8"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
       </c>
-      <c r="G180" s="2" t="s">
-        <v>365</v>
-      </c>
+      <c r="G180" s="2">
+        <v>44398</v>
+      </c>
+      <c r="I180" s="8"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
       </c>
       <c r="G181" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I181" s="8"/>
+        <v>43678</v>
+      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
       </c>
       <c r="G182" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -4258,11 +4321,10 @@
       <c r="G183" s="2">
         <v>43678</v>
       </c>
-      <c r="I183" s="8"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
@@ -4273,41 +4335,41 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
       </c>
       <c r="G185" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
       </c>
-      <c r="G186" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I186" s="8"/>
+      <c r="G186" s="2" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
       </c>
       <c r="G187" s="2">
-        <v>43678</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="I187" s="8"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -4318,117 +4380,119 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
       </c>
       <c r="G189" s="2">
-        <v>43313</v>
-      </c>
+        <v>43678</v>
+      </c>
+      <c r="I189" s="8"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
       </c>
       <c r="G190" s="2">
-        <v>43313</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>352</v>
+        <v>162</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
       </c>
       <c r="G191" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>357</v>
+        <v>163</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
       </c>
       <c r="G192" s="2">
-        <v>44348</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="I192" s="8"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
       </c>
       <c r="G193" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
       </c>
       <c r="G194" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
       </c>
       <c r="G195" s="2">
-        <v>43617</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
       </c>
       <c r="G196" s="2">
-        <v>43617</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="C197" t="s">
         <v>0</v>
       </c>
       <c r="G197" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
       </c>
       <c r="G198" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
@@ -4439,18 +4503,18 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
       </c>
       <c r="G200" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -4461,84 +4525,84 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
       </c>
-      <c r="G202" s="7">
-        <v>44032</v>
+      <c r="G202" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
       </c>
-      <c r="G203" s="7">
-        <v>44032</v>
+      <c r="G203" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
       </c>
-      <c r="G204" s="7">
-        <v>44032</v>
+      <c r="G204" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
       </c>
       <c r="G205" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
       </c>
       <c r="G206" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
       </c>
       <c r="G207" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
       </c>
-      <c r="G208" s="2">
-        <v>44348</v>
+      <c r="G208" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
@@ -4549,7 +4613,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -4560,7 +4624,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
@@ -4571,29 +4635,29 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
       </c>
-      <c r="G212" s="7">
-        <v>44032</v>
+      <c r="G212" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
       </c>
-      <c r="G213" s="7">
-        <v>44032</v>
+      <c r="G213" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
@@ -4604,62 +4668,62 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>421</v>
+        <v>274</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
       </c>
-      <c r="G215" s="2">
-        <v>44348</v>
+      <c r="G215" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
       </c>
-      <c r="G216" s="2">
-        <v>44348</v>
+      <c r="G216" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
       </c>
-      <c r="G217" s="7">
-        <v>44032</v>
+      <c r="G217" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="C218" t="s">
         <v>0</v>
       </c>
-      <c r="G218" s="2">
-        <v>44348</v>
+      <c r="G218" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>422</v>
+        <v>277</v>
       </c>
       <c r="C219" t="s">
         <v>0</v>
       </c>
-      <c r="G219" s="2">
-        <v>44348</v>
+      <c r="G219" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
@@ -4670,40 +4734,40 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>279</v>
+        <v>415</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
       </c>
-      <c r="G221" s="7">
-        <v>44032</v>
+      <c r="G221" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
       </c>
-      <c r="G222" s="7">
-        <v>44032</v>
+      <c r="G222" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
       </c>
-      <c r="G223" s="2">
-        <v>44348</v>
+      <c r="G223" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -4714,7 +4778,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -4725,18 +4789,18 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>281</v>
+        <v>417</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
       </c>
-      <c r="G226" s="7">
-        <v>44032</v>
+      <c r="G226" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C227" t="s">
         <v>0</v>
@@ -4747,7 +4811,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C228" t="s">
         <v>0</v>
@@ -4758,29 +4822,29 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>284</v>
+        <v>418</v>
       </c>
       <c r="C229" t="s">
         <v>0</v>
       </c>
-      <c r="G229" s="7">
-        <v>44032</v>
+      <c r="G229" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C230" t="s">
         <v>0</v>
       </c>
-      <c r="G230" s="7">
-        <v>44032</v>
+      <c r="G230" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="C231" t="s">
         <v>0</v>
@@ -4791,7 +4855,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C232" t="s">
         <v>0</v>
@@ -4802,29 +4866,29 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>426</v>
+        <v>282</v>
       </c>
       <c r="C233" t="s">
         <v>0</v>
       </c>
-      <c r="G233" s="2">
-        <v>44348</v>
+      <c r="G233" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="C234" t="s">
         <v>0</v>
       </c>
-      <c r="G234" s="2">
-        <v>44348</v>
+      <c r="G234" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C235" t="s">
         <v>0</v>
@@ -4835,7 +4899,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C236" t="s">
         <v>0</v>
@@ -4846,18 +4910,18 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>289</v>
+        <v>419</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
       </c>
-      <c r="G237" s="7">
-        <v>44032</v>
+      <c r="G237" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C238" t="s">
         <v>0</v>
@@ -4868,7 +4932,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
@@ -4879,18 +4943,18 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="C240" t="s">
         <v>0</v>
       </c>
-      <c r="G240" s="7">
-        <v>44032</v>
+      <c r="G240" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C241" t="s">
         <v>0</v>
@@ -4901,7 +4965,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
@@ -4912,7 +4976,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C243" t="s">
         <v>0</v>
@@ -4923,7 +4987,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C244" t="s">
         <v>0</v>
@@ -4934,18 +4998,18 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="C245" t="s">
         <v>0</v>
       </c>
-      <c r="G245" s="7">
-        <v>44032</v>
+      <c r="G245" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C246" t="s">
         <v>0</v>
@@ -4956,7 +5020,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C247" t="s">
         <v>0</v>
@@ -4967,7 +5031,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C248" t="s">
         <v>0</v>
@@ -4978,7 +5042,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
@@ -4989,18 +5053,18 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
       </c>
-      <c r="G250" s="2">
-        <v>44348</v>
+      <c r="G250" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C251" t="s">
         <v>0</v>
@@ -5011,7 +5075,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C252" t="s">
         <v>0</v>
@@ -5022,7 +5086,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C253" t="s">
         <v>0</v>
@@ -5033,7 +5097,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C254" t="s">
         <v>0</v>
@@ -5044,29 +5108,29 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="C255" t="s">
         <v>0</v>
       </c>
-      <c r="G255" s="2">
-        <v>44348</v>
+      <c r="G255" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="C256" t="s">
         <v>0</v>
       </c>
-      <c r="G256" s="7">
-        <v>44032</v>
+      <c r="G256" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C257" t="s">
         <v>0</v>
@@ -5077,7 +5141,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -5088,7 +5152,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C259" t="s">
         <v>0</v>
@@ -5099,7 +5163,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C260" t="s">
         <v>0</v>
@@ -5110,18 +5174,18 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="C261" t="s">
         <v>0</v>
       </c>
-      <c r="G261" s="7">
-        <v>44032</v>
+      <c r="G261" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
@@ -5132,7 +5196,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
@@ -5143,7 +5207,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
@@ -5154,7 +5218,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C265" t="s">
         <v>0</v>
@@ -5165,7 +5229,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C266" t="s">
         <v>0</v>
@@ -5176,7 +5240,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C267" t="s">
         <v>0</v>
@@ -5187,7 +5251,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C268" t="s">
         <v>0</v>
@@ -5198,7 +5262,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C269" t="s">
         <v>0</v>
@@ -5209,7 +5273,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="C270" t="s">
         <v>0</v>
@@ -5220,7 +5284,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -5231,7 +5295,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -5242,7 +5306,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
@@ -5253,7 +5317,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -5264,7 +5328,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C275" t="s">
         <v>0</v>
@@ -5275,85 +5339,84 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>13</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>366</v>
+        <v>270</v>
+      </c>
+      <c r="C276" t="s">
+        <v>0</v>
+      </c>
+      <c r="G276" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
       </c>
-      <c r="G277" s="2">
-        <v>43617</v>
+      <c r="G277" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
       </c>
-      <c r="G278" s="2">
-        <v>43617</v>
+      <c r="G278" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
       </c>
-      <c r="G279" s="2">
-        <v>43617</v>
+      <c r="G279" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
       </c>
-      <c r="G280" s="2">
-        <v>43617</v>
+      <c r="G280" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
       </c>
-      <c r="G281" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I281" s="8"/>
+      <c r="G281" s="7">
+        <v>44032</v>
+      </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>116</v>
-      </c>
-      <c r="C282" t="s">
-        <v>0</v>
-      </c>
-      <c r="G282" s="2">
-        <v>43617</v>
+        <v>13</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C283" t="s">
         <v>0</v>
@@ -5364,7 +5427,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C284" t="s">
         <v>0</v>
@@ -5375,7 +5438,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
@@ -5386,18 +5449,18 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
       </c>
       <c r="G286" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C287" t="s">
         <v>0</v>
@@ -5405,10 +5468,11 @@
       <c r="G287" s="2">
         <v>43617</v>
       </c>
+      <c r="I287" s="8"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C288" t="s">
         <v>0</v>
@@ -5417,9 +5481,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -5428,9 +5492,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
@@ -5439,144 +5503,76 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="B291" s="10"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9"/>
-      <c r="E291" s="9"/>
-      <c r="F291" s="9"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B292" s="10"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9"/>
-      <c r="E292" s="9"/>
-      <c r="F292" s="9"/>
-      <c r="G292" s="2"/>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B293" s="10"/>
-      <c r="C293" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9"/>
-      <c r="F293" s="9"/>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>119</v>
+      </c>
+      <c r="C291" t="s">
+        <v>0</v>
+      </c>
+      <c r="G291" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>119</v>
+      </c>
+      <c r="C292" t="s">
+        <v>0</v>
+      </c>
+      <c r="G292" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>120</v>
+      </c>
+      <c r="C293" t="s">
+        <v>0</v>
+      </c>
       <c r="G293" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B294" s="10"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
-      <c r="E294" s="9"/>
-      <c r="F294" s="9"/>
-      <c r="G294" s="2"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="B295" s="10"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="9"/>
-      <c r="F295" s="9"/>
-      <c r="G295" s="2"/>
-      <c r="I295" s="8"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B296" s="10"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="E296" s="9"/>
-      <c r="F296" s="9"/>
-      <c r="I296" s="8"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B297" s="10"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="2"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B298" s="10"/>
-      <c r="C298" s="9"/>
-      <c r="D298" s="9"/>
-      <c r="E298" s="9"/>
-      <c r="F298" s="9"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B299" s="10"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9"/>
-      <c r="E299" s="9"/>
-      <c r="F299" s="9"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B300" s="10"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
-      <c r="E300" s="9"/>
-      <c r="F300" s="9"/>
-      <c r="G300" s="2"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B301" s="10"/>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
-      <c r="E301" s="9"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="2"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B302" s="10"/>
-      <c r="C302" s="9"/>
-      <c r="D302" s="9"/>
-      <c r="E302" s="9"/>
-      <c r="F302" s="9"/>
-      <c r="G302" s="8"/>
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>121</v>
+      </c>
+      <c r="C294" t="s">
+        <v>0</v>
+      </c>
+      <c r="G294" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>122</v>
+      </c>
+      <c r="C295" t="s">
+        <v>0</v>
+      </c>
+      <c r="G295" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>130</v>
+      </c>
+      <c r="C296" t="s">
+        <v>0</v>
+      </c>
+      <c r="G296" s="2">
+        <v>43617</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I303">
-    <sortCondition ref="H2:H303"/>
-    <sortCondition ref="A2:A303"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I296">
+    <sortCondition ref="H2:H296"/>
+    <sortCondition ref="A2:A296"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/background/Species codes.xlsx
+++ b/background/Species codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\background\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1F82F-28EF-4A52-8304-B49F80C2AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD60F9B-0093-4CF3-BA2C-3FBBC0F1E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="477">
   <si>
     <t>unknown</t>
   </si>
@@ -1431,21 +1431,6 @@
     <t>THEL</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Thelypodiopsis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sp.</t>
-    </r>
-  </si>
-  <si>
     <t>LECI4</t>
   </si>
   <si>
@@ -1475,12 +1460,132 @@
   <si>
     <t>Oenothera suffrutescens</t>
   </si>
+  <si>
+    <t>ERRE4</t>
+  </si>
+  <si>
+    <t>Erysimum repandum</t>
+  </si>
+  <si>
+    <t>Hesperostipa comata</t>
+  </si>
+  <si>
+    <t>HECO26</t>
+  </si>
+  <si>
+    <t>Opuntia fragilis</t>
+  </si>
+  <si>
+    <t>OPFR</t>
+  </si>
+  <si>
+    <t>Thelypodiopsis elegans</t>
+  </si>
+  <si>
+    <t>LATA</t>
+  </si>
+  <si>
+    <t>Lactuca tatarica</t>
+  </si>
+  <si>
+    <t>POCO</t>
+  </si>
+  <si>
+    <t>Poa compressa</t>
+  </si>
+  <si>
+    <t>CIIN</t>
+  </si>
+  <si>
+    <t>Cichorium intybus</t>
+  </si>
+  <si>
+    <t>UF1_6-27</t>
+  </si>
+  <si>
+    <t>not Plantago? Shiny long leaf, medium to thin veination</t>
+  </si>
+  <si>
+    <t>UF1_6-22</t>
+  </si>
+  <si>
+    <t>UF5_6-20</t>
+  </si>
+  <si>
+    <t>Basal rosette #2</t>
+  </si>
+  <si>
+    <t>Basal rosette #1</t>
+  </si>
+  <si>
+    <t>UF2_6-28</t>
+  </si>
+  <si>
+    <t>UF3_6-28</t>
+  </si>
+  <si>
+    <t>ARFR4</t>
+  </si>
+  <si>
+    <t>Artemisia frigida</t>
+  </si>
+  <si>
+    <t>ARLU</t>
+  </si>
+  <si>
+    <t>Artemisia ludoviciana</t>
+  </si>
+  <si>
+    <t>UG5_6-29</t>
+  </si>
+  <si>
+    <t>UG2_6-29</t>
+  </si>
+  <si>
+    <t>UG6_6-29</t>
+  </si>
+  <si>
+    <t>UG7_6-29</t>
+  </si>
+  <si>
+    <t>CIUN</t>
+  </si>
+  <si>
+    <t>Cirsium undulatum</t>
+  </si>
+  <si>
+    <t>ELCA4</t>
+  </si>
+  <si>
+    <t>Elymus canadensis</t>
+  </si>
+  <si>
+    <t>SCSC</t>
+  </si>
+  <si>
+    <t>Schizachyrium scoparium</t>
+  </si>
+  <si>
+    <t>ASTRAGALUS</t>
+  </si>
+  <si>
+    <t>Astragalus spp.</t>
+  </si>
+  <si>
+    <t>UG4_6-30</t>
+  </si>
+  <si>
+    <t>UG7_6-30</t>
+  </si>
+  <si>
+    <t>UG8_6-30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,6 +1621,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1537,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1548,6 +1659,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,39 +2141,38 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="E11" t="s">
         <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="E12" t="s">
         <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>257</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>86</v>
+      <c r="A13" t="s">
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
         <v>201</v>
@@ -2071,11 +2182,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>386</v>
+      <c r="A14" t="s">
+        <v>384</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E14" t="s">
         <v>201</v>
@@ -2083,27 +2194,26 @@
       <c r="F14" t="s">
         <v>256</v>
       </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>198</v>
+      <c r="A15" t="s">
+        <v>472</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>473</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" t="s">
-        <v>257</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>370</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>371</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>201</v>
@@ -2114,10 +2224,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>201</v>
@@ -2127,53 +2237,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
+      <c r="A18" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>372</v>
+      <c r="A21" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>201</v>
@@ -2183,11 +2293,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>390</v>
+      <c r="A22" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>202</v>
@@ -2198,10 +2308,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>202</v>
@@ -2212,24 +2322,24 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>96</v>
+      <c r="A25" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>391</v>
       </c>
       <c r="E25" t="s">
         <v>202</v>
@@ -2239,11 +2349,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>185</v>
+      <c r="A26" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
         <v>202</v>
@@ -2253,11 +2363,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>323</v>
+      <c r="A27" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
         <v>202</v>
@@ -2268,10 +2378,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
         <v>202</v>
@@ -2282,13 +2392,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
         <v>257</v>
@@ -2296,13 +2406,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
         <v>257</v>
@@ -2310,13 +2420,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
         <v>257</v>
@@ -2324,13 +2434,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
         <v>257</v>
@@ -2338,27 +2448,27 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
         <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
         <v>257</v>
@@ -2366,13 +2476,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
         <v>257</v>
@@ -2380,27 +2490,27 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>448</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>449</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>466</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>325</v>
+        <v>467</v>
       </c>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
         <v>257</v>
@@ -2408,24 +2518,24 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>393</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
         <v>202</v>
@@ -2436,39 +2546,38 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>395</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
         <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>257</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
         <v>201</v>
       </c>
       <c r="F41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="E42" t="s">
         <v>202</v>
@@ -2479,66 +2588,67 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>396</v>
+        <v>210</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E45" t="s">
         <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E46" t="s">
         <v>201</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>377</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
         <v>202</v>
@@ -2549,144 +2659,150 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>468</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E48" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>396</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>326</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E54" t="s">
         <v>202</v>
       </c>
-      <c r="F48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E49" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="E55" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>232</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F50" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>437</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E57" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>328</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="E51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>234</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E53" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" t="s">
-        <v>201</v>
-      </c>
-      <c r="F54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>435</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F55" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E58" t="s">
         <v>201</v>
@@ -2695,26 +2811,26 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>398</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>399</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
         <v>201</v>
       </c>
       <c r="F59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
         <v>201</v>
@@ -2723,12 +2839,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
         <v>201</v>
@@ -2737,26 +2853,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" t="s">
-        <v>201</v>
+        <v>433</v>
       </c>
       <c r="F62" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
         <v>201</v>
@@ -2765,29 +2878,26 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" s="4" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" t="s">
         <v>256</v>
       </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
         <v>201</v>
@@ -2796,110 +2906,113 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>440</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="E66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="E67" t="s">
         <v>201</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>330</v>
+        <v>172</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>432</v>
+        <v>191</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>433</v>
+        <v>192</v>
       </c>
       <c r="E69" t="s">
         <v>201</v>
       </c>
       <c r="F69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" t="s">
-        <v>202</v>
-      </c>
-      <c r="F70" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>332</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E71" t="s">
-        <v>202</v>
-      </c>
-      <c r="F71" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s">
         <v>201</v>
@@ -2908,12 +3021,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>426</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>427</v>
       </c>
       <c r="E74" t="s">
         <v>201</v>
@@ -2922,12 +3035,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E75" t="s">
         <v>202</v>
@@ -2936,30 +3049,26 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E76" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>331</v>
       </c>
       <c r="E77" t="s">
         <v>202</v>
@@ -2968,26 +3077,26 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>341</v>
+        <v>432</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>64</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>131</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
         <v>202</v>
@@ -2996,37 +3105,40 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>334</v>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>332</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>257</v>
+        <v>66</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>425</v>
+        <v>137</v>
       </c>
       <c r="E82" t="s">
         <v>201</v>
@@ -3037,41 +3149,38 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
         <v>201</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G84" s="8"/>
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" t="s">
+        <v>202</v>
+      </c>
+      <c r="F84" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>436</v>
+      <c r="A85" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3086,24 +3195,24 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="E87" t="s">
         <v>202</v>
@@ -3113,14 +3222,14 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>59</v>
+      <c r="A88" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F88" t="s">
         <v>257</v>
@@ -3128,55 +3237,49 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F89" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E89" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" t="s">
         <v>256</v>
       </c>
-      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>217</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" t="s">
-        <v>202</v>
-      </c>
-      <c r="F90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>258</v>
+        <v>424</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>259</v>
+        <v>425</v>
       </c>
       <c r="E91" t="s">
         <v>201</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E92" t="s">
         <v>201</v>
@@ -3186,53 +3289,60 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>336</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E93" t="s">
-        <v>201</v>
-      </c>
-      <c r="F93" t="s">
-        <v>256</v>
-      </c>
+      <c r="A93" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E94" t="s">
-        <v>201</v>
-      </c>
-      <c r="F94" t="s">
-        <v>257</v>
-      </c>
+      <c r="A94" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="8"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="E95" t="s">
         <v>201</v>
       </c>
       <c r="F95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
         <v>202</v>
@@ -3243,81 +3353,83 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E97" t="s">
-        <v>201</v>
-      </c>
-      <c r="F97" t="s">
-        <v>256</v>
+        <v>441</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E99" t="s">
-        <v>201</v>
-      </c>
-      <c r="F99" t="s">
-        <v>257</v>
-      </c>
+      <c r="A99" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="E100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F100" t="s">
         <v>257</v>
       </c>
-      <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>408</v>
+        <v>337</v>
       </c>
       <c r="E102" t="s">
         <v>201</v>
@@ -3327,11 +3439,11 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>54</v>
+      <c r="A103" t="s">
+        <v>58</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E103" t="s">
         <v>201</v>
@@ -3341,11 +3453,11 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>227</v>
+      <c r="A104" t="s">
+        <v>189</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="E104" t="s">
         <v>201</v>
@@ -3355,14 +3467,14 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>380</v>
+      <c r="A105" t="s">
+        <v>217</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
         <v>257</v>
@@ -3370,13 +3482,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>446</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>128</v>
+        <v>447</v>
       </c>
       <c r="E106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
         <v>257</v>
@@ -3384,10 +3496,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E107" t="s">
         <v>202</v>
@@ -3397,29 +3509,25 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>52</v>
+      <c r="A108" t="s">
+        <v>378</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="E108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>257</v>
-      </c>
-      <c r="I108" s="8"/>
+        <v>256</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
         <v>202</v>
@@ -3430,10 +3538,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E110" t="s">
         <v>201</v>
@@ -3441,42 +3549,42 @@
       <c r="F110" t="s">
         <v>257</v>
       </c>
-      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
         <v>257</v>
       </c>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>414</v>
+        <v>56</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>49</v>
+      <c r="A113" t="s">
+        <v>407</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="E113" t="s">
         <v>201</v>
@@ -3487,10 +3595,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="E114" t="s">
         <v>201</v>
@@ -3498,31 +3606,27 @@
       <c r="F114" t="s">
         <v>257</v>
       </c>
-      <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G115" s="8"/>
+        <v>227</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E115" t="s">
+        <v>201</v>
+      </c>
+      <c r="F115" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>197</v>
+      <c r="A116" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>26</v>
+        <v>381</v>
       </c>
       <c r="E116" t="s">
         <v>201</v>
@@ -3532,28 +3636,25 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G117" s="4"/>
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>47</v>
+      <c r="A118" t="s">
+        <v>208</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="E118" t="s">
         <v>202</v>
@@ -3564,10 +3665,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E119" t="s">
         <v>202</v>
@@ -3579,27 +3683,26 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+        <v>470</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="E120" t="s">
+        <v>201</v>
+      </c>
       <c r="F120" t="s">
-        <v>257</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+        <v>256</v>
+      </c>
       <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="E121" t="s">
         <v>202</v>
@@ -3610,24 +3713,25 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>382</v>
+        <v>175</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>383</v>
+        <v>176</v>
       </c>
       <c r="E122" t="s">
         <v>201</v>
       </c>
       <c r="F122" t="s">
-        <v>256</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="E123" t="s">
         <v>201</v>
@@ -3637,43 +3741,39 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>41</v>
+      <c r="A124" t="s">
+        <v>414</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>39</v>
+        <v>413</v>
       </c>
       <c r="E124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="1"/>
+        <v>48</v>
+      </c>
       <c r="E125" t="s">
         <v>201</v>
       </c>
       <c r="F125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>139</v>
+      <c r="A126" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="E126" t="s">
         <v>201</v>
@@ -3681,261 +3781,314 @@
       <c r="F126" t="s">
         <v>257</v>
       </c>
+      <c r="I126" s="8"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>38</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" t="s">
-        <v>202</v>
-      </c>
-      <c r="F127" t="s">
-        <v>257</v>
-      </c>
+      <c r="A127" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G127" s="8"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
+        <v>201</v>
+      </c>
+      <c r="F128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" t="s">
+        <v>257</v>
+      </c>
+      <c r="I131" s="8"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F132" t="s">
+        <v>257</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="8"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" t="s">
+        <v>202</v>
+      </c>
+      <c r="F133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>382</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E134" t="s">
+        <v>201</v>
+      </c>
+      <c r="F134" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>193</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E135" t="s">
+        <v>201</v>
+      </c>
+      <c r="F135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" t="s">
+        <v>202</v>
+      </c>
+      <c r="F136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="E137" t="s">
+        <v>201</v>
+      </c>
+      <c r="F137" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" t="s">
+        <v>201</v>
+      </c>
+      <c r="F138" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" t="s">
+        <v>202</v>
+      </c>
+      <c r="F139" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>421</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E128" t="s">
-        <v>201</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E140" t="s">
+        <v>201</v>
+      </c>
+      <c r="F140" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>15</v>
       </c>
-      <c r="C129" t="s">
-        <v>0</v>
-      </c>
-      <c r="G129" s="2">
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
         <v>43221</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G130" s="2">
+      <c r="C142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="2">
         <v>43221</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>366</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G131" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>360</v>
-      </c>
-      <c r="C132" t="s">
-        <v>0</v>
-      </c>
-      <c r="G132" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>125</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>201</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G134" s="2">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>264</v>
-      </c>
-      <c r="C135" t="s">
-        <v>0</v>
-      </c>
-      <c r="G135" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>347</v>
-      </c>
-      <c r="C136" t="s">
-        <v>0</v>
-      </c>
-      <c r="G136" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>143</v>
-      </c>
-      <c r="C137" t="s">
-        <v>0</v>
-      </c>
-      <c r="G137" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" t="s">
-        <v>0</v>
-      </c>
-      <c r="G138" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
-        <v>0</v>
-      </c>
-      <c r="G139" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G140" s="2">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" t="s">
-        <v>0</v>
-      </c>
-      <c r="G141" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>235</v>
-      </c>
-      <c r="C142" t="s">
-        <v>0</v>
-      </c>
-      <c r="G142" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>351</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G143" s="2">
         <v>44348</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
       </c>
       <c r="G144" s="2">
-        <v>43617</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>214</v>
-      </c>
-      <c r="C145" t="s">
-        <v>0</v>
-      </c>
-      <c r="G145" s="2">
-        <v>43678</v>
+        <v>125</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>201</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G146" s="2">
-        <v>43617</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
       </c>
-      <c r="G147" s="2">
-        <v>43678</v>
+      <c r="G147" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
       </c>
       <c r="G148" s="2">
-        <v>43678</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
@@ -3946,84 +4099,84 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C150" t="s">
         <v>0</v>
       </c>
       <c r="G150" s="2">
-        <v>43221</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
       </c>
       <c r="G151" s="2">
-        <v>43678</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G152" s="2">
-        <v>43313</v>
+        <v>43221</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
       </c>
       <c r="G153" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
       </c>
       <c r="G154" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
       </c>
       <c r="G155" s="2">
-        <v>43678</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" t="s">
         <v>0</v>
       </c>
       <c r="G156" s="2">
-        <v>43221</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
@@ -4034,18 +4187,18 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
       </c>
-      <c r="G158" s="7">
-        <v>44032</v>
+      <c r="G158" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -4056,62 +4209,62 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
       </c>
       <c r="G160" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>148</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G161" s="2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162" s="2">
         <v>43221</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>0</v>
-      </c>
-      <c r="G162" s="2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>238</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>151</v>
-      </c>
-      <c r="C163" t="s">
-        <v>0</v>
-      </c>
-      <c r="G163" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>242</v>
-      </c>
-      <c r="C164" t="s">
-        <v>0</v>
-      </c>
-      <c r="G164" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -4120,20 +4273,20 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
       </c>
       <c r="G166" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -4142,42 +4295,42 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>152</v>
-      </c>
-      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G168" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
       </c>
       <c r="G169" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
       </c>
-      <c r="G170" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G170" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -4186,65 +4339,64 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
       </c>
       <c r="G172" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G173" s="2">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174" s="2">
         <v>43313</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>154</v>
-      </c>
-      <c r="C173" t="s">
-        <v>0</v>
-      </c>
-      <c r="G173" s="2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>151</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="G175" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>218</v>
-      </c>
-      <c r="C174" t="s">
-        <v>0</v>
-      </c>
-      <c r="G174" s="2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>242</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="G176" s="2">
         <v>43678</v>
-      </c>
-      <c r="I174" s="8"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>219</v>
-      </c>
-      <c r="C175" t="s">
-        <v>0</v>
-      </c>
-      <c r="G175" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>155</v>
-      </c>
-      <c r="C176" t="s">
-        <v>0</v>
-      </c>
-      <c r="G176" s="2">
-        <v>43617</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -4252,68 +4404,65 @@
       <c r="G177" s="2">
         <v>43678</v>
       </c>
-      <c r="I177" s="8"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
       </c>
       <c r="G178" s="2">
-        <v>43617</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
       </c>
       <c r="G179" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I179" s="8"/>
+        <v>43678</v>
+      </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>403</v>
+        <v>152</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
       </c>
       <c r="G180" s="2">
-        <v>44398</v>
-      </c>
-      <c r="I180" s="8"/>
+        <v>43617</v>
+      </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
       </c>
       <c r="G181" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>356</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
       </c>
       <c r="G182" s="2">
-        <v>43678</v>
+        <v>44348</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -4324,52 +4473,52 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
       </c>
       <c r="G184" s="2">
-        <v>43617</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
       </c>
       <c r="G185" s="2">
-        <v>43678</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
       </c>
-      <c r="G186" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="G186" s="2">
+        <v>43678</v>
+      </c>
+      <c r="I186" s="8"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
       </c>
       <c r="G187" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I187" s="8"/>
+        <v>43678</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -4380,7 +4529,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
@@ -4392,7 +4541,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
@@ -4403,7 +4552,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -4411,22 +4560,23 @@
       <c r="G191" s="2">
         <v>43617</v>
       </c>
+      <c r="I191" s="8"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>403</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
       </c>
       <c r="G192" s="2">
-        <v>43617</v>
+        <v>44398</v>
       </c>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -4435,64 +4585,64 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
       </c>
       <c r="G194" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>221</v>
+      </c>
+      <c r="C195" t="s">
+        <v>0</v>
+      </c>
+      <c r="G195" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>158</v>
+      </c>
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+      <c r="G196" s="2">
         <v>43617</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195" t="s">
-        <v>0</v>
-      </c>
-      <c r="G195" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>0</v>
-      </c>
-      <c r="G196" s="2">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="C197" t="s">
         <v>0</v>
       </c>
       <c r="G197" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>357</v>
+        <v>4</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
       </c>
-      <c r="G198" s="2">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
@@ -4500,32 +4650,34 @@
       <c r="G199" s="2">
         <v>43617</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I199" s="8"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
       </c>
       <c r="G200" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>249</v>
+      </c>
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="G201" s="2">
         <v>43678</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>165</v>
-      </c>
-      <c r="C201" t="s">
-        <v>0</v>
-      </c>
-      <c r="G201" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I201" s="8"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -4534,9 +4686,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -4545,9 +4697,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -4555,21 +4707,22 @@
       <c r="G204" s="2">
         <v>43617</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I204" s="8"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
       </c>
       <c r="G205" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
@@ -4578,196 +4731,196 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
       </c>
       <c r="G207" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
       </c>
-      <c r="G208" s="7">
-        <v>44032</v>
+      <c r="G208" s="2">
+        <v>43313</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
       </c>
-      <c r="G209" s="7">
-        <v>44032</v>
+      <c r="G209" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
       </c>
-      <c r="G210" s="7">
-        <v>44032</v>
+      <c r="G210" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
       </c>
       <c r="G211" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>344</v>
+        <v>251</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
       </c>
       <c r="G212" s="2">
-        <v>44348</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>348</v>
+        <v>165</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
       </c>
       <c r="G213" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>349</v>
+        <v>126</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
       </c>
       <c r="G214" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
       </c>
-      <c r="G215" s="7">
-        <v>44032</v>
+      <c r="G215" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
       </c>
-      <c r="G216" s="7">
-        <v>44032</v>
+      <c r="G216" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>363</v>
+        <v>167</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
       </c>
       <c r="G217" s="2">
-        <v>44348</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="C218" t="s">
         <v>0</v>
       </c>
-      <c r="G218" s="7">
-        <v>44032</v>
+      <c r="G218" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="C219" t="s">
         <v>0</v>
       </c>
-      <c r="G219" s="7">
-        <v>44032</v>
+      <c r="G219" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
       </c>
-      <c r="G220" s="2">
-        <v>44348</v>
+      <c r="G220" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
       </c>
-      <c r="G221" s="2">
-        <v>44348</v>
+      <c r="G221" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
       </c>
-      <c r="G222" s="2">
-        <v>44348</v>
+      <c r="G222" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
       </c>
-      <c r="G223" s="7">
-        <v>44032</v>
+      <c r="G223" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -4778,7 +4931,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -4789,7 +4942,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
@@ -4800,7 +4953,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C227" t="s">
         <v>0</v>
@@ -4811,7 +4964,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C228" t="s">
         <v>0</v>
@@ -4822,7 +4975,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="C229" t="s">
         <v>0</v>
@@ -4833,62 +4986,62 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="C230" t="s">
         <v>0</v>
       </c>
-      <c r="G230" s="2">
-        <v>44348</v>
+      <c r="G230" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="C231" t="s">
         <v>0</v>
       </c>
-      <c r="G231" s="2">
-        <v>44348</v>
+      <c r="G231" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="C232" t="s">
         <v>0</v>
       </c>
-      <c r="G232" s="7">
-        <v>44032</v>
+      <c r="G232" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>415</v>
       </c>
       <c r="C233" t="s">
         <v>0</v>
       </c>
-      <c r="G233" s="7">
-        <v>44032</v>
+      <c r="G233" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="C234" t="s">
         <v>0</v>
       </c>
-      <c r="G234" s="7">
-        <v>44032</v>
+      <c r="G234" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C235" t="s">
         <v>0</v>
@@ -4899,18 +5052,18 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="C236" t="s">
         <v>0</v>
       </c>
-      <c r="G236" s="7">
-        <v>44032</v>
+      <c r="G236" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
@@ -4921,73 +5074,73 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
       <c r="C238" t="s">
         <v>0</v>
       </c>
-      <c r="G238" s="7">
-        <v>44032</v>
+      <c r="G238" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
       </c>
-      <c r="G239" s="2">
-        <v>44348</v>
+      <c r="G239" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="C240" t="s">
         <v>0</v>
       </c>
-      <c r="G240" s="2">
-        <v>44348</v>
+      <c r="G240" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>287</v>
+        <v>418</v>
       </c>
       <c r="C241" t="s">
         <v>0</v>
       </c>
-      <c r="G241" s="7">
-        <v>44032</v>
+      <c r="G241" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
       </c>
-      <c r="G242" s="7">
-        <v>44032</v>
+      <c r="G242" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="C243" t="s">
         <v>0</v>
       </c>
-      <c r="G243" s="7">
-        <v>44032</v>
+      <c r="G243" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C244" t="s">
         <v>0</v>
@@ -4998,18 +5151,18 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="C245" t="s">
         <v>0</v>
       </c>
-      <c r="G245" s="2">
-        <v>44348</v>
+      <c r="G245" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C246" t="s">
         <v>0</v>
@@ -5020,7 +5173,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C247" t="s">
         <v>0</v>
@@ -5031,7 +5184,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C248" t="s">
         <v>0</v>
@@ -5042,18 +5195,18 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
       </c>
-      <c r="G249" s="7">
-        <v>44032</v>
+      <c r="G249" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
@@ -5064,29 +5217,29 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="C251" t="s">
         <v>0</v>
       </c>
-      <c r="G251" s="7">
-        <v>44032</v>
+      <c r="G251" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="C252" t="s">
         <v>0</v>
       </c>
-      <c r="G252" s="7">
-        <v>44032</v>
+      <c r="G252" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C253" t="s">
         <v>0</v>
@@ -5097,7 +5250,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C254" t="s">
         <v>0</v>
@@ -5108,7 +5261,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C255" t="s">
         <v>0</v>
@@ -5119,29 +5272,29 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="C256" t="s">
         <v>0</v>
       </c>
-      <c r="G256" s="2">
-        <v>44348</v>
+      <c r="G256" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C257" t="s">
         <v>0</v>
       </c>
-      <c r="G257" s="7">
-        <v>44032</v>
+      <c r="G257" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -5152,7 +5305,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C259" t="s">
         <v>0</v>
@@ -5163,7 +5316,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C260" t="s">
         <v>0</v>
@@ -5174,18 +5327,18 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="C261" t="s">
         <v>0</v>
       </c>
-      <c r="G261" s="2">
-        <v>44348</v>
+      <c r="G261" s="7">
+        <v>44032</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
@@ -5196,7 +5349,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
@@ -5207,7 +5360,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
@@ -5218,7 +5371,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C265" t="s">
         <v>0</v>
@@ -5229,7 +5382,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C266" t="s">
         <v>0</v>
@@ -5240,7 +5393,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C267" t="s">
         <v>0</v>
@@ -5251,18 +5404,18 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="C268" t="s">
         <v>0</v>
       </c>
-      <c r="G268" s="7">
-        <v>44032</v>
+      <c r="G268" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C269" t="s">
         <v>0</v>
@@ -5273,7 +5426,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C270" t="s">
         <v>0</v>
@@ -5284,7 +5437,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -5295,7 +5448,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -5304,20 +5457,20 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
       </c>
-      <c r="G273" s="7">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G273" s="2">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -5326,9 +5479,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C275" t="s">
         <v>0</v>
@@ -5337,9 +5490,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="C276" t="s">
         <v>0</v>
@@ -5348,9 +5501,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
@@ -5359,9 +5512,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
@@ -5370,9 +5523,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -5381,9 +5534,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
@@ -5392,9 +5545,9 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
@@ -5403,153 +5556,152 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>313</v>
+      </c>
+      <c r="C282" t="s">
+        <v>0</v>
+      </c>
+      <c r="G282" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>314</v>
+      </c>
+      <c r="C283" t="s">
+        <v>0</v>
+      </c>
+      <c r="G283" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>315</v>
+      </c>
+      <c r="C284" t="s">
+        <v>0</v>
+      </c>
+      <c r="G284" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>316</v>
+      </c>
+      <c r="C285" t="s">
+        <v>0</v>
+      </c>
+      <c r="G285" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>317</v>
+      </c>
+      <c r="C286" t="s">
+        <v>0</v>
+      </c>
+      <c r="G286" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>318</v>
+      </c>
+      <c r="C287" t="s">
+        <v>0</v>
+      </c>
+      <c r="G287" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>270</v>
+      </c>
+      <c r="C288" t="s">
+        <v>0</v>
+      </c>
+      <c r="G288" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>269</v>
+      </c>
+      <c r="C289" t="s">
+        <v>0</v>
+      </c>
+      <c r="G289" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>266</v>
+      </c>
+      <c r="C290" t="s">
+        <v>0</v>
+      </c>
+      <c r="G290" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>267</v>
+      </c>
+      <c r="C291" t="s">
+        <v>0</v>
+      </c>
+      <c r="G291" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>268</v>
+      </c>
+      <c r="C292" t="s">
+        <v>0</v>
+      </c>
+      <c r="G292" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>319</v>
+      </c>
+      <c r="C293" t="s">
+        <v>0</v>
+      </c>
+      <c r="G293" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>13</v>
       </c>
-      <c r="C282" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G282" s="2" t="s">
+      <c r="C294" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>111</v>
-      </c>
-      <c r="C283" t="s">
-        <v>0</v>
-      </c>
-      <c r="G283" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>112</v>
-      </c>
-      <c r="C284" t="s">
-        <v>0</v>
-      </c>
-      <c r="G284" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>113</v>
-      </c>
-      <c r="C285" t="s">
-        <v>0</v>
-      </c>
-      <c r="G285" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>114</v>
-      </c>
-      <c r="C286" t="s">
-        <v>0</v>
-      </c>
-      <c r="G286" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>115</v>
-      </c>
-      <c r="C287" t="s">
-        <v>0</v>
-      </c>
-      <c r="G287" s="2">
-        <v>43617</v>
-      </c>
-      <c r="I287" s="8"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>116</v>
-      </c>
-      <c r="C288" t="s">
-        <v>0</v>
-      </c>
-      <c r="G288" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>117</v>
-      </c>
-      <c r="C289" t="s">
-        <v>0</v>
-      </c>
-      <c r="G289" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>118</v>
-      </c>
-      <c r="C290" t="s">
-        <v>0</v>
-      </c>
-      <c r="G290" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>119</v>
-      </c>
-      <c r="C291" t="s">
-        <v>0</v>
-      </c>
-      <c r="G291" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>119</v>
-      </c>
-      <c r="C292" t="s">
-        <v>0</v>
-      </c>
-      <c r="G292" s="2">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>120</v>
-      </c>
-      <c r="C293" t="s">
-        <v>0</v>
-      </c>
-      <c r="G293" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>121</v>
-      </c>
-      <c r="C294" t="s">
-        <v>0</v>
-      </c>
-      <c r="G294" s="2">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>122</v>
       </c>
       <c r="C295" t="s">
         <v>0</v>
@@ -5558,9 +5710,9 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C296" t="s">
         <v>0</v>
@@ -5569,10 +5721,275 @@
         <v>43617</v>
       </c>
     </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>113</v>
+      </c>
+      <c r="C297" t="s">
+        <v>0</v>
+      </c>
+      <c r="G297" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>114</v>
+      </c>
+      <c r="C298" t="s">
+        <v>0</v>
+      </c>
+      <c r="G298" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>115</v>
+      </c>
+      <c r="C299" t="s">
+        <v>0</v>
+      </c>
+      <c r="G299" s="2">
+        <v>43617</v>
+      </c>
+      <c r="I299" s="8"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>116</v>
+      </c>
+      <c r="C300" t="s">
+        <v>0</v>
+      </c>
+      <c r="G300" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>117</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+      <c r="G301" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>118</v>
+      </c>
+      <c r="C302" t="s">
+        <v>0</v>
+      </c>
+      <c r="G302" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>119</v>
+      </c>
+      <c r="C303" t="s">
+        <v>0</v>
+      </c>
+      <c r="G303" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>119</v>
+      </c>
+      <c r="C304" t="s">
+        <v>0</v>
+      </c>
+      <c r="G304" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>120</v>
+      </c>
+      <c r="C305" t="s">
+        <v>0</v>
+      </c>
+      <c r="G305" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>121</v>
+      </c>
+      <c r="C306" t="s">
+        <v>0</v>
+      </c>
+      <c r="G306" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>122</v>
+      </c>
+      <c r="C307" t="s">
+        <v>0</v>
+      </c>
+      <c r="G307" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>130</v>
+      </c>
+      <c r="C308" t="s">
+        <v>0</v>
+      </c>
+      <c r="G308" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>450</v>
+      </c>
+      <c r="C309" t="s">
+        <v>451</v>
+      </c>
+      <c r="G309" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>452</v>
+      </c>
+      <c r="C310" t="s">
+        <v>454</v>
+      </c>
+      <c r="G310" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>453</v>
+      </c>
+      <c r="C311" t="s">
+        <v>455</v>
+      </c>
+      <c r="G311" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>456</v>
+      </c>
+      <c r="C312" t="s">
+        <v>0</v>
+      </c>
+      <c r="G312" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>457</v>
+      </c>
+      <c r="C313" t="s">
+        <v>0</v>
+      </c>
+      <c r="G313" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C314" t="s">
+        <v>0</v>
+      </c>
+      <c r="G314" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C315" t="s">
+        <v>0</v>
+      </c>
+      <c r="G315" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C316" t="s">
+        <v>0</v>
+      </c>
+      <c r="G316" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="G317" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C318" t="s">
+        <v>0</v>
+      </c>
+      <c r="G318" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C319" t="s">
+        <v>0</v>
+      </c>
+      <c r="G319" s="7">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C320" t="s">
+        <v>0</v>
+      </c>
+      <c r="G320" s="7">
+        <v>44734</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I296">
-    <sortCondition ref="H2:H296"/>
-    <sortCondition ref="A2:A296"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I308">
+    <sortCondition ref="H2:H308"/>
+    <sortCondition ref="A2:A308"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
